--- a/assignments/hw3/Results.xlsx
+++ b/assignments/hw3/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styt-\Documents\GitHub\cs499-fa22\assignments\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC34560-6749-4999-A8B6-EBEC4F744E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B5F11-6F83-4E01-87E5-02DEEC0035F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Connections</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Microservices Single</t>
+  </si>
+  <si>
+    <t>Microservices Swarm</t>
   </si>
 </sst>
 </file>
@@ -1427,6 +1430,664 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Microservices</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Swarm Latency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CY"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$31:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53FC-4294-B972-7E5C8A5E2BBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53FC-4294-B972-7E5C8A5E2BBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-53FC-4294-B972-7E5C8A5E2BBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99.999th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$31:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-53FC-4294-B972-7E5C8A5E2BBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1219843056"/>
+        <c:axId val="1219843472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1219843056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219843472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1219843472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219843056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1507,6 +2168,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2011,6 +2712,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2582,6 +3786,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171862</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>164823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>157368</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>136662</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFE3EB8-0219-D9C8-DF85-75CCD475A449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2853,10 +4093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3395,10 +4635,275 @@
         <v>531.29999999999995</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31">
+        <v>1.93</v>
+      </c>
+      <c r="C31">
+        <v>2.46</v>
+      </c>
+      <c r="D31">
+        <v>4.21</v>
+      </c>
+      <c r="E31">
+        <v>7.4</v>
+      </c>
+      <c r="F31">
+        <v>59910</v>
+      </c>
+      <c r="G31">
+        <v>544.42999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>200</v>
+      </c>
+      <c r="B32">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C32">
+        <v>2.93</v>
+      </c>
+      <c r="D32">
+        <v>5.8</v>
+      </c>
+      <c r="E32">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F32">
+        <v>59610</v>
+      </c>
+      <c r="G32">
+        <v>539.23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>300</v>
+      </c>
+      <c r="B33">
+        <v>2.08</v>
+      </c>
+      <c r="C33">
+        <v>2.6</v>
+      </c>
+      <c r="D33">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E33">
+        <v>7.52</v>
+      </c>
+      <c r="F33">
+        <v>59529</v>
+      </c>
+      <c r="G33">
+        <v>537.08000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>400</v>
+      </c>
+      <c r="B34">
+        <v>2.73</v>
+      </c>
+      <c r="C34">
+        <v>4.59</v>
+      </c>
+      <c r="D34">
+        <v>9.35</v>
+      </c>
+      <c r="E34">
+        <v>12.3</v>
+      </c>
+      <c r="F34">
+        <v>59410</v>
+      </c>
+      <c r="G34">
+        <v>537.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>500</v>
+      </c>
+      <c r="B35">
+        <v>3.55</v>
+      </c>
+      <c r="C35">
+        <v>7.83</v>
+      </c>
+      <c r="D35">
+        <v>13.93</v>
+      </c>
+      <c r="E35">
+        <v>24.62</v>
+      </c>
+      <c r="F35">
+        <v>59310</v>
+      </c>
+      <c r="G35">
+        <v>536.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>600</v>
+      </c>
+      <c r="B36">
+        <v>3.32</v>
+      </c>
+      <c r="C36">
+        <v>7.86</v>
+      </c>
+      <c r="D36">
+        <v>15.41</v>
+      </c>
+      <c r="E36">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="F36">
+        <v>59229</v>
+      </c>
+      <c r="G36">
+        <v>534.14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>700</v>
+      </c>
+      <c r="B37">
+        <v>4.41</v>
+      </c>
+      <c r="C37">
+        <v>8.73</v>
+      </c>
+      <c r="D37">
+        <v>16.66</v>
+      </c>
+      <c r="E37">
+        <v>23.6</v>
+      </c>
+      <c r="F37">
+        <v>59291</v>
+      </c>
+      <c r="G37">
+        <v>536.53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>800</v>
+      </c>
+      <c r="B38">
+        <v>5.36</v>
+      </c>
+      <c r="C38">
+        <v>9.34</v>
+      </c>
+      <c r="D38">
+        <v>15.98</v>
+      </c>
+      <c r="E38">
+        <v>20.46</v>
+      </c>
+      <c r="F38">
+        <v>59049</v>
+      </c>
+      <c r="G38">
+        <v>533.42999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>900</v>
+      </c>
+      <c r="B39">
+        <v>7.12</v>
+      </c>
+      <c r="C39">
+        <v>11.08</v>
+      </c>
+      <c r="D39">
+        <v>19.39</v>
+      </c>
+      <c r="E39">
+        <v>23.97</v>
+      </c>
+      <c r="F39">
+        <v>59400</v>
+      </c>
+      <c r="G39">
+        <v>536.69000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>1000</v>
+      </c>
+      <c r="B40">
+        <v>7.02</v>
+      </c>
+      <c r="C40">
+        <v>9.94</v>
+      </c>
+      <c r="D40">
+        <v>16.96</v>
+      </c>
+      <c r="E40">
+        <v>23.07</v>
+      </c>
+      <c r="F40">
+        <v>58611</v>
+      </c>
+      <c r="G40">
+        <v>531.71</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assignments/hw3/Results.xlsx
+++ b/assignments/hw3/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styt-\Documents\GitHub\cs499-fa22\assignments\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B5F11-6F83-4E01-87E5-02DEEC0035F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA0368D-E86B-402D-B374-8234ED33617E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3953" yWindow="3953" windowWidth="21599" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4095,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
